--- a/US/data/BTS/TRPT/ASM.xlsx
+++ b/US/data/BTS/TRPT/ASM.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4404,13 +4404,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>42665758</v>
+        <v>42874334</v>
       </c>
       <c r="D234" t="n">
-        <v>17605713</v>
+        <v>17613611</v>
       </c>
       <c r="E234" t="n">
-        <v>60271471</v>
+        <v>60487945</v>
       </c>
     </row>
     <row r="235">
@@ -4489,13 +4489,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>515492937</v>
+        <v>515701512</v>
       </c>
       <c r="D239" t="n">
-        <v>329657450</v>
+        <v>329665349</v>
       </c>
       <c r="E239" t="n">
-        <v>845150387</v>
+        <v>845366861</v>
       </c>
     </row>
     <row r="240">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>47940846</v>
+        <v>42319123</v>
       </c>
       <c r="D240" t="n">
-        <v>31122703</v>
+        <v>26642658</v>
       </c>
       <c r="E240" t="n">
-        <v>79063548</v>
+        <v>68961781</v>
       </c>
     </row>
     <row r="241">
@@ -4528,10 +4528,10 @@
         <v>37929592</v>
       </c>
       <c r="D241" t="n">
-        <v>21765489</v>
+        <v>21515693</v>
       </c>
       <c r="E241" t="n">
-        <v>59695081</v>
+        <v>59445285</v>
       </c>
     </row>
     <row r="242">
@@ -4545,10 +4545,10 @@
         <v>53749945</v>
       </c>
       <c r="D242" t="n">
-        <v>25699026</v>
+        <v>25397351</v>
       </c>
       <c r="E242" t="n">
-        <v>79448972</v>
+        <v>79147297</v>
       </c>
     </row>
     <row r="243">
@@ -4562,10 +4562,10 @@
         <v>54788423</v>
       </c>
       <c r="D243" t="n">
-        <v>27434611</v>
+        <v>27219955</v>
       </c>
       <c r="E243" t="n">
-        <v>82223035</v>
+        <v>82008379</v>
       </c>
     </row>
     <row r="244">
@@ -4579,10 +4579,10 @@
         <v>61334360</v>
       </c>
       <c r="D244" t="n">
-        <v>30337366</v>
+        <v>30188316</v>
       </c>
       <c r="E244" t="n">
-        <v>91671726</v>
+        <v>91522676</v>
       </c>
     </row>
     <row r="245">
@@ -4593,13 +4593,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>67463626</v>
+        <v>67465567</v>
       </c>
       <c r="D245" t="n">
-        <v>36161419</v>
+        <v>36051708</v>
       </c>
       <c r="E245" t="n">
-        <v>103625045</v>
+        <v>103517275</v>
       </c>
     </row>
     <row r="246">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>73592887</v>
+        <v>73408210</v>
       </c>
       <c r="D246" t="n">
-        <v>40603714</v>
+        <v>40655732</v>
       </c>
       <c r="E246" t="n">
-        <v>114196601</v>
+        <v>114063942</v>
       </c>
     </row>
     <row r="247">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>71871021</v>
+        <v>71871469</v>
       </c>
       <c r="D247" t="n">
-        <v>43107499</v>
+        <v>43205755</v>
       </c>
       <c r="E247" t="n">
-        <v>114978520</v>
+        <v>115077224</v>
       </c>
     </row>
     <row r="248">
@@ -4644,13 +4644,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>66269036</v>
+        <v>66269438</v>
       </c>
       <c r="D248" t="n">
-        <v>40053974</v>
+        <v>40660357</v>
       </c>
       <c r="E248" t="n">
-        <v>106323010</v>
+        <v>106929795</v>
       </c>
     </row>
     <row r="249">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>69065048</v>
+        <v>69065454</v>
       </c>
       <c r="D249" t="n">
-        <v>41151999</v>
+        <v>41815824</v>
       </c>
       <c r="E249" t="n">
-        <v>110217047</v>
+        <v>110881278</v>
       </c>
     </row>
     <row r="250">
@@ -4678,13 +4678,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>68470112</v>
+        <v>68470605</v>
       </c>
       <c r="D250" t="n">
-        <v>41388596</v>
+        <v>42252794</v>
       </c>
       <c r="E250" t="n">
-        <v>109858708</v>
+        <v>110723399</v>
       </c>
     </row>
     <row r="251">
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>69439923</v>
+        <v>69445509</v>
       </c>
       <c r="D251" t="n">
-        <v>45912918</v>
+        <v>49017716</v>
       </c>
       <c r="E251" t="n">
-        <v>115352840</v>
+        <v>118463225</v>
       </c>
     </row>
     <row r="252">
@@ -4712,17 +4712,87 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>741914820</v>
+        <v>736117696</v>
       </c>
       <c r="D252" t="n">
-        <v>424739312</v>
+        <v>424623860</v>
       </c>
       <c r="E252" t="n">
-        <v>1166654132</v>
+        <v>1160741556</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>64317644</v>
+      </c>
+      <c r="D253" t="n">
+        <v>48010963</v>
+      </c>
+      <c r="E253" t="n">
+        <v>112328607</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>60642541</v>
+      </c>
+      <c r="D254" t="n">
+        <v>41269375</v>
+      </c>
+      <c r="E254" t="n">
+        <v>101911916</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>71908413</v>
+      </c>
+      <c r="D255" t="n">
+        <v>50023141</v>
+      </c>
+      <c r="E255" t="n">
+        <v>121931554</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>196868599</v>
+      </c>
+      <c r="D256" t="n">
+        <v>139303479</v>
+      </c>
+      <c r="E256" t="n">
+        <v>336172078</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A19:A31"/>
@@ -4743,6 +4813,7 @@
     <mergeCell ref="A214:A226"/>
     <mergeCell ref="A227:A239"/>
     <mergeCell ref="A240:A252"/>
+    <mergeCell ref="A253:A256"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
